--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
@@ -102,9 +102,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>RTI employee 101</t>
-  </si>
-  <si>
     <t>KnownName</t>
   </si>
   <si>
@@ -249,7 +246,10 @@
     <t>Regular work pattern - days</t>
   </si>
   <si>
-    <t>rtiemployee1001@xcdgmail.com</t>
+    <t>rtiemployee1002@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>RTI employee 1002</t>
   </si>
 </sst>
 </file>
@@ -678,24 +678,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -813,64 +813,64 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>15</v>
@@ -884,19 +884,19 @@
     </row>
     <row r="2" spans="1:40" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>18</v>
@@ -908,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>21</v>
@@ -917,7 +917,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="4">
         <v>5</v>
@@ -926,73 +926,73 @@
         <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AE2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="AH2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>24</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -246,10 +246,10 @@
     <t>Regular work pattern - days</t>
   </si>
   <si>
-    <t>rtiemployee1002@xcdgmail.com</t>
-  </si>
-  <si>
     <t>RTI employee 1002</t>
+  </si>
+  <si>
+    <t>rtiemployee1003@xcdgmail.com</t>
   </si>
 </sst>
 </file>
@@ -343,9 +343,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -713,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,20 +885,20 @@
       </c>
     </row>
     <row r="2" spans="1:40" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>18</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>FirstName</t>
   </si>
@@ -246,10 +246,13 @@
     <t>Regular work pattern - days</t>
   </si>
   <si>
-    <t>RTI employee 1002</t>
-  </si>
-  <si>
-    <t>rtiemployee1003@xcdgmail.com</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>rtiemployee1014@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>RTI employee 1014</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>74</v>
@@ -924,8 +927,8 @@
       <c r="M2" s="4">
         <v>5</v>
       </c>
-      <c r="N2" s="4">
-        <v>40</v>
+      <c r="N2" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>41</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
   <si>
     <t>FirstName</t>
   </si>
@@ -45,9 +45,6 @@
     <t>JobTitle</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>EmploymentType</t>
   </si>
   <si>
@@ -156,110 +153,413 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Week1/Month1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>JS123456B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>DateOfNoticeOfTermination</t>
+  </si>
+  <si>
+    <t>LeavingDate</t>
+  </si>
+  <si>
+    <t>LastWorkingDate</t>
+  </si>
+  <si>
+    <t>ReasonForLeaving</t>
+  </si>
+  <si>
+    <t>28/11/2017</t>
+  </si>
+  <si>
+    <t>End of contract</t>
+  </si>
+  <si>
+    <t>PayrollEligibility</t>
+  </si>
+  <si>
+    <t>ActivateLicense</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>This creates New Employee via New joiner record</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1001</t>
+  </si>
+  <si>
+    <t>CreateNewRTIEmployees</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Regular work pattern - days</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>rtiemployee1016@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>UKPostcode</t>
+  </si>
+  <si>
+    <t>PayrollId</t>
+  </si>
+  <si>
+    <t>168,Linton Street</t>
+  </si>
+  <si>
+    <t>CIT Road</t>
+  </si>
+  <si>
+    <t>BN11YD</t>
+  </si>
+  <si>
+    <t>08/14/1995</t>
+  </si>
+  <si>
+    <t>45L</t>
+  </si>
+  <si>
+    <t>TAX1</t>
+  </si>
+  <si>
+    <t>X Not liable for NI</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>RecognitionEmpOne</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>AddressType</t>
+  </si>
+  <si>
+    <t>Current home</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>RecognitionEmpTwo</t>
+  </si>
+  <si>
+    <t>RecognitionEmpThree</t>
+  </si>
+  <si>
+    <t>RecognitionEmpFour</t>
+  </si>
+  <si>
+    <t>RecognitionEmpFive</t>
+  </si>
+  <si>
+    <t>RecognitionEmpSix</t>
+  </si>
+  <si>
+    <t>RecognitionEmpSeven</t>
+  </si>
+  <si>
+    <t>RecognitionEmpFiveRejoin</t>
+  </si>
+  <si>
+    <t>rtiemployee1017@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1018@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1019@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1020@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1021@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1022@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1023@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1002</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1003</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1004</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1005</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1006</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1007</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>22 Duff Street</t>
+  </si>
+  <si>
+    <t>PAYE Town</t>
+  </si>
+  <si>
+    <t>NR3 1ED</t>
+  </si>
+  <si>
+    <t>21 Nat Ins-SRIT Test Street</t>
+  </si>
+  <si>
+    <t>PAYE Town in England</t>
+  </si>
+  <si>
+    <t>GU1 4RF</t>
+  </si>
+  <si>
+    <t>121 Monthly Mews</t>
+  </si>
+  <si>
+    <t>BS1 2PY</t>
+  </si>
+  <si>
+    <t>1 Starting Street</t>
+  </si>
+  <si>
+    <t>Start town</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>LS3 1LH</t>
+  </si>
+  <si>
+    <t>1 Glasgow Road</t>
+  </si>
+  <si>
+    <t>The Highlands</t>
+  </si>
+  <si>
+    <t>KY16 8AB</t>
+  </si>
+  <si>
+    <t>04/15/1989</t>
+  </si>
+  <si>
+    <t>08/06/1953</t>
+  </si>
+  <si>
+    <t>12/03/1992</t>
+  </si>
+  <si>
+    <t>06/01/1976</t>
+  </si>
+  <si>
+    <t>01/01/1980</t>
+  </si>
+  <si>
+    <t>02/23/1990</t>
+  </si>
+  <si>
+    <t>SMP1</t>
+  </si>
+  <si>
+    <t>Robin/1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>A All other employees</t>
+  </si>
+  <si>
+    <t>1150L</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>1000L</t>
+  </si>
+  <si>
+    <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
+  </si>
+  <si>
+    <t>1210M</t>
+  </si>
+  <si>
+    <t>H Apprentices under the age of 25.</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>21133.44</t>
+  </si>
+  <si>
+    <t>S45L</t>
+  </si>
+  <si>
+    <t>Plan 1</t>
+  </si>
+  <si>
+    <t>Plan 2</t>
+  </si>
+  <si>
+    <t>RZ123456C</t>
+  </si>
+  <si>
+    <t>HT780146A</t>
+  </si>
+  <si>
+    <t>SC342166B</t>
+  </si>
+  <si>
+    <t>AB342165A</t>
+  </si>
+  <si>
+    <t>TA352166D</t>
+  </si>
+  <si>
     <t>01/01/2017</t>
   </si>
   <si>
-    <t>45000</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>H Apprentices under the age of 25.</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>Week1/Month1</t>
-  </si>
-  <si>
-    <t>01/01/1985</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>JS123456B</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>01/06/2017</t>
-  </si>
-  <si>
-    <t>DateOfNoticeOfTermination</t>
-  </si>
-  <si>
-    <t>LeavingDate</t>
-  </si>
-  <si>
-    <t>LastWorkingDate</t>
-  </si>
-  <si>
-    <t>ReasonForLeaving</t>
-  </si>
-  <si>
-    <t>28/11/2017</t>
-  </si>
-  <si>
-    <t>28/02/2018</t>
-  </si>
-  <si>
-    <t>End of contract</t>
-  </si>
-  <si>
-    <t>PayrollEligibility</t>
-  </si>
-  <si>
-    <t>ActivateLicense</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>This creates New Employee via New joiner record</t>
-  </si>
-  <si>
-    <t>Draft DO NOT TOUCH</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1001</t>
-  </si>
-  <si>
-    <t>CreateNewRTIEmployees</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>Regular work pattern - days</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>rtiemployee1014@xcdgmail.com</t>
-  </si>
-  <si>
-    <t>RTI employee 1014</t>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE Rejoiner 1005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>10 rue Charles de Gaulle</t>
+  </si>
+  <si>
+    <t>Appartement 42</t>
+  </si>
+  <si>
+    <t>Lyon Cedex</t>
+  </si>
+  <si>
+    <t>Robin/2</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>LastPayrunDate</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +589,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -318,11 +642,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,9 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -352,10 +674,48 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +1030,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,30 +1043,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -716,300 +1076,1295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="28.28515625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="60.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="69.42578125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="18" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="21" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="16" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="18" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18" customWidth="1"/>
+    <col min="46" max="46" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="22">
+        <v>5</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="U2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="22">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>60000</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT3" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="22">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>8160.48</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO4" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="22">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ5" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO5" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="22">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="V6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W6" s="16">
+        <v>69001</v>
+      </c>
+      <c r="X6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>30000</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO6" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP6" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ6" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="22">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>30</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>12345678</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="22">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>37</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="16">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AC8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ8" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="22">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" t="s">
+        <v>160</v>
+      </c>
+      <c r="U9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W9" s="16">
+        <v>69001</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="4">
-        <v>5</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AM9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://eu9.salesforce.com/a0D0O00000fnr3B"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu9.salesforce.com/a0D0O00000fnr3B"/>
+    <hyperlink ref="A3:A9" r:id="rId3" display="https://eu9.salesforce.com/a0D0O00000fnr3B"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="E8" r:id="rId9"/>
+    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId11"/>
+    <hyperlink ref="F3" r:id="rId12"/>
+    <hyperlink ref="F4" r:id="rId13"/>
+    <hyperlink ref="F5" r:id="rId14"/>
+    <hyperlink ref="F6" r:id="rId15"/>
+    <hyperlink ref="F7" r:id="rId16"/>
+    <hyperlink ref="F8" r:id="rId17"/>
+    <hyperlink ref="F9" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Create RTI Employees201718.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="2"/>
-    <sheet name="CreateNewRTIEmployees" r:id="rId2" sheetId="1"/>
+    <sheet name="first" sheetId="2" r:id="rId1"/>
+    <sheet name="CreateNewRTIEmployees" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
   <si>
     <t>FirstName</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>RecognitionEmpFiveRejoin</t>
-  </si>
-  <si>
-    <t>rtiemployee1023@xcdgmail.com</t>
   </si>
   <si>
     <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1002</t>
@@ -555,17 +552,22 @@
     <t>rtiemployee1028@xcdgmail.com</t>
   </si>
   <si>
-    <t>rtiemployee1029@xcdgmail.com</t>
-  </si>
-  <si>
     <t>rtiemployee1030@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>rtiemployee1031@xcdgmail.com</t>
+  </si>
+  <si>
+    <t>rtiemployee1032@xcdgmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,64 +645,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -717,10 +719,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -755,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -807,7 +809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -918,21 +920,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -949,7 +951,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1001,14 +1003,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1017,10 +1019,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1052,68 +1054,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="69.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="28.140625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="23" max="24" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="32" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="43.140625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="38" max="39" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="25.140625" collapsed="false"/>
-    <col min="43" max="43" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="48" max="48" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="17" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="39" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="16" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="25.140625" customWidth="1"/>
+    <col min="43" max="43" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="18" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="18" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -1148,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -1175,13 +1177,13 @@
         <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>79</v>
@@ -1241,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>47</v>
@@ -1256,7 +1258,7 @@
         <v>50</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>13</v>
@@ -1268,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="2" s="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1281,11 +1283,11 @@
       <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>94</v>
+      <c r="E2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
@@ -1354,7 +1356,7 @@
         <v>40</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>41</v>
@@ -1414,7 +1416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="3" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1428,10 +1430,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -1461,31 +1463,31 @@
         <v>39</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>82</v>
@@ -1494,10 +1496,10 @@
         <v>84</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC3" s="10">
         <v>60000</v>
@@ -1512,55 +1514,55 @@
         <v>42</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI3" s="10">
         <v>1</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AN3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AQ3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AR3" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="AS3" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.5" r="4" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1574,10 +1576,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -1607,31 +1609,31 @@
         <v>39</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>82</v>
@@ -1640,7 +1642,7 @@
         <v>84</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC4" s="10">
         <v>8160.48</v>
@@ -1655,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH4" s="12" t="s">
         <v>43</v>
@@ -1664,10 +1666,10 @@
         <v>21</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL4" s="10">
         <v>0</v>
@@ -1676,16 +1678,16 @@
         <v>44</v>
       </c>
       <c r="AN4" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR4" s="10" t="s">
         <v>78</v>
@@ -1703,7 +1705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="5" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1717,10 +1719,10 @@
         <v>89</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>16</v>
@@ -1750,31 +1752,31 @@
         <v>39</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>82</v>
@@ -1783,10 +1785,10 @@
         <v>84</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>41</v>
@@ -1798,19 +1800,19 @@
         <v>42</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL5" s="10">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>44</v>
       </c>
       <c r="AN5" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AR5" s="10" t="s">
         <v>78</v>
@@ -1846,7 +1848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="6" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1860,10 +1862,10 @@
         <v>90</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>
@@ -1893,40 +1895,40 @@
         <v>39</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="W6" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="X6" s="10">
         <v>69001</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>40</v>
@@ -1944,19 +1946,19 @@
         <v>42</v>
       </c>
       <c r="AG6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH6" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL6" s="10">
         <v>0</v>
@@ -1965,34 +1967,34 @@
         <v>44</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AQ6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR6" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="AR6" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="AS6" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="7" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -2006,10 +2008,10 @@
         <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
@@ -2039,31 +2041,31 @@
         <v>39</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="9" t="s">
         <v>82</v>
@@ -2075,10 +2077,10 @@
         <v>12345678</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>41</v>
@@ -2090,31 +2092,31 @@
         <v>42</v>
       </c>
       <c r="AG7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH7" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="AI7" s="10">
         <v>1</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP7" s="10">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="8" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -2137,10 +2139,10 @@
         <v>92</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
@@ -2170,31 +2172,31 @@
         <v>39</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>82</v>
@@ -2205,8 +2207,8 @@
       <c r="AB8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC8" s="10">
-        <v>0</v>
+      <c r="AC8" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>41</v>
@@ -2218,7 +2220,7 @@
         <v>42</v>
       </c>
       <c r="AG8" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>43</v>
@@ -2227,10 +2229,10 @@
         <v>21</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL8" s="10">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>45</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP8" s="10">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="9" s="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2265,10 +2267,10 @@
         <v>93</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
@@ -2298,40 +2300,40 @@
         <v>39</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="U9" s="10" t="s">
+      <c r="V9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="W9" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="X9" s="10">
         <v>69001</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>40</v>
@@ -2349,7 +2351,7 @@
         <v>42</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>43</v>
@@ -2358,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>21</v>
@@ -2370,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="4" t="s">
         <v>46</v>
@@ -2384,26 +2386,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu9.salesforce.com/a0D0O00000fnr3B" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu9.salesforce.com/a0D0O00000fnr3B" r:id="rId2" ref="A3:A9"/>
-    <hyperlink r:id="rId3" ref="E2"/>
-    <hyperlink r:id="rId4" ref="F2"/>
-    <hyperlink r:id="rId5" ref="E3"/>
-    <hyperlink r:id="rId6" ref="F3"/>
-    <hyperlink r:id="rId7" ref="E4"/>
-    <hyperlink r:id="rId8" ref="F4"/>
-    <hyperlink r:id="rId9" ref="E5"/>
-    <hyperlink r:id="rId10" ref="F5"/>
-    <hyperlink r:id="rId11" ref="E6"/>
-    <hyperlink r:id="rId12" ref="F6"/>
-    <hyperlink r:id="rId13" ref="E7"/>
-    <hyperlink r:id="rId14" ref="F7"/>
-    <hyperlink r:id="rId15" ref="E8"/>
-    <hyperlink r:id="rId16" ref="F8"/>
-    <hyperlink r:id="rId17" ref="E9"/>
-    <hyperlink r:id="rId18" ref="F9"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu9.salesforce.com/a0D0O00000fnr3B"/>
+    <hyperlink ref="A3:A9" r:id="rId2" display="https://eu9.salesforce.com/a0D0O00000fnr3B"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="F4" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="F6" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="F7" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="F9" r:id="rId16"/>
+    <hyperlink ref="F2" r:id="rId17"/>
+    <hyperlink ref="F8" r:id="rId18"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>